--- a/考勤小程序/交付版本v2/1-学生名单表/学生名单.xlsx
+++ b/考勤小程序/交付版本v2/1-学生名单表/学生名单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Weston/Desktop/北京昌职/Beijing_Changzhi_edu/考勤小程序/交付版本v2/1-学生名单表/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD404A-CE90-F145-9342-DAD2FE42F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24860" windowHeight="11420" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="语文" sheetId="2" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>班级</t>
   </si>
@@ -29,6 +23,9 @@
     <t>名单</t>
   </si>
   <si>
+    <t>大数据高二一班</t>
+  </si>
+  <si>
     <t>崔昊元</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
     <t>叶平</t>
   </si>
   <si>
+    <t>大数据高二二班</t>
+  </si>
+  <si>
     <t>侯文杰</t>
   </si>
   <si>
@@ -197,6 +197,9 @@
     <t>墨梓恒</t>
   </si>
   <si>
+    <t>大数据高二三班</t>
+  </si>
+  <si>
     <t>陈龙</t>
   </si>
   <si>
@@ -231,25 +234,26 @@
   </si>
   <si>
     <t>吴晓涛</t>
-  </si>
-  <si>
-    <t>大数据高二一班</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据高二二班</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据高二三班</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,34 +270,350 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -301,13 +621,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
@@ -323,31 +885,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -605,26 +1211,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.6607142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1607142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="5" max="7" width="12.6607142857143" customWidth="1"/>
+    <col min="8" max="8" width="12.3303571428571" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,566 +1252,567 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="7" t="s">
-        <v>70</v>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>70</v>
+    <row r="5" ht="18" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="7" t="s">
-        <v>70</v>
+    <row r="7" ht="18" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
+    <row r="8" ht="18" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="7" t="s">
-        <v>70</v>
+    <row r="9" ht="18" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="7" t="s">
-        <v>70</v>
+    <row r="10" ht="18" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="7" t="s">
-        <v>70</v>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="7" t="s">
-        <v>70</v>
+    <row r="12" ht="18" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="7" t="s">
-        <v>70</v>
+    <row r="13" ht="18" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="7" t="s">
-        <v>70</v>
+    <row r="14" ht="18" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="7" t="s">
-        <v>70</v>
+    <row r="15" ht="18" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="7" t="s">
-        <v>70</v>
+    <row r="16" ht="18" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="7" t="s">
-        <v>70</v>
+    <row r="17" ht="18" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>71</v>
+    <row r="18" ht="15" customHeight="1" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="7" t="s">
-        <v>71</v>
+    <row r="19" ht="18" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="7" t="s">
-        <v>71</v>
+    <row r="20" ht="18" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="7" t="s">
-        <v>71</v>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="7" t="s">
-        <v>71</v>
+    <row r="23" ht="18" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="7" t="s">
-        <v>71</v>
+    <row r="24" ht="18" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="7" t="s">
-        <v>71</v>
+    <row r="27" ht="18" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="7" t="s">
-        <v>71</v>
+    <row r="28" ht="18" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="16">
-      <c r="A29" s="7" t="s">
-        <v>71</v>
+    <row r="29" ht="18" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="16">
-      <c r="A30" s="7" t="s">
-        <v>71</v>
+    <row r="30" ht="18" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="16">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
+    <row r="31" ht="18" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="16">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
+    <row r="32" ht="18" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="16">
-      <c r="A33" s="7" t="s">
-        <v>71</v>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="16">
-      <c r="A34" s="7" t="s">
-        <v>71</v>
+    <row r="34" ht="18" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="16">
-      <c r="A35" s="7" t="s">
-        <v>71</v>
+    <row r="35" ht="18" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="16">
-      <c r="A36" s="7" t="s">
-        <v>71</v>
+    <row r="36" ht="18" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="16">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
+    <row r="37" ht="18" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="16">
-      <c r="A38" s="7" t="s">
-        <v>71</v>
+    <row r="38" ht="18" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="16">
-      <c r="A39" s="7" t="s">
-        <v>71</v>
+    <row r="39" ht="18" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="16">
-      <c r="A40" s="7" t="s">
-        <v>71</v>
+    <row r="40" ht="18" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="16">
-      <c r="A41" s="7" t="s">
-        <v>71</v>
+    <row r="41" ht="18" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="16">
-      <c r="A42" s="7" t="s">
-        <v>71</v>
+    <row r="42" ht="18" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="16">
-      <c r="A43" s="7" t="s">
-        <v>71</v>
+    <row r="43" ht="18" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="16">
-      <c r="A44" s="7" t="s">
-        <v>71</v>
+    <row r="44" ht="18" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="16">
-      <c r="A45" s="7" t="s">
-        <v>71</v>
+    <row r="45" ht="18" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="16">
-      <c r="A46" s="7" t="s">
-        <v>71</v>
+    <row r="46" ht="18" spans="1:7">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="16">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
+    <row r="47" ht="18" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="16">
-      <c r="A48" s="7" t="s">
-        <v>71</v>
+    <row r="48" ht="18" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="16">
-      <c r="A49" s="7" t="s">
-        <v>71</v>
+    <row r="49" ht="18" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="16">
-      <c r="A50" s="7" t="s">
-        <v>71</v>
+    <row r="50" ht="18" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="16">
-      <c r="A51" s="7" t="s">
-        <v>71</v>
+    <row r="51" ht="18" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="16">
-      <c r="A52" s="7" t="s">
-        <v>71</v>
+    <row r="52" ht="18" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="16">
-      <c r="A53" s="7" t="s">
-        <v>71</v>
+    <row r="53" ht="18" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="16">
-      <c r="A54" s="7" t="s">
-        <v>71</v>
+    <row r="54" ht="18" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="16">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
+    <row r="55" ht="18" spans="1:7">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="16">
-      <c r="A56" s="7" t="s">
-        <v>71</v>
+    <row r="56" ht="18" spans="1:7">
+      <c r="A56" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="16">
-      <c r="A57" s="7" t="s">
-        <v>71</v>
+    <row r="57" ht="18" spans="1:7">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4"/>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="4"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="4"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="4"/>
+      <c r="A67" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6607142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1607142857143" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1213,583 +1820,583 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
+    <row r="2" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="7" t="s">
-        <v>70</v>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>70</v>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
+    <row r="6" ht="18" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="7" t="s">
-        <v>70</v>
+    <row r="7" ht="18" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="7" t="s">
-        <v>70</v>
+    <row r="9" ht="18" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="7" t="s">
-        <v>70</v>
+    <row r="10" ht="18" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="7" t="s">
-        <v>70</v>
+    <row r="12" ht="18" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="7" t="s">
-        <v>70</v>
+    <row r="13" ht="18" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="7" t="s">
-        <v>70</v>
+    <row r="14" ht="18" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="7" t="s">
-        <v>70</v>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="7" t="s">
-        <v>70</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="7" t="s">
-        <v>71</v>
+    <row r="19" ht="18" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="7" t="s">
-        <v>71</v>
+    <row r="20" ht="18" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="7" t="s">
-        <v>71</v>
+    <row r="21" ht="18" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="7" t="s">
-        <v>71</v>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16">
-      <c r="A24" s="7" t="s">
-        <v>71</v>
+    <row r="24" ht="18" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="16">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
+    <row r="25" ht="18" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="16">
-      <c r="A26" s="7" t="s">
-        <v>71</v>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16">
-      <c r="A27" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="16">
-      <c r="A28" s="7" t="s">
-        <v>71</v>
+    <row r="28" ht="18" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="16">
-      <c r="A29" s="7" t="s">
-        <v>71</v>
+    <row r="29" ht="18" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16">
-      <c r="A30" s="7" t="s">
+    <row r="30" ht="18" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" ht="18" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" ht="18" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" ht="18" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" ht="18" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" ht="18" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" ht="18" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" ht="18" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="16">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16">
-      <c r="A33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16">
-      <c r="A34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16">
-      <c r="A35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16">
-      <c r="A36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16">
-      <c r="A38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16">
-      <c r="A39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16">
-      <c r="A40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16">
-      <c r="A41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16">
-      <c r="A42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16">
-      <c r="A43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16">
-      <c r="A44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16">
-      <c r="A45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16">
-      <c r="A46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16">
-      <c r="A48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16">
-      <c r="A49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16">
-      <c r="A50" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16">
-      <c r="A51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16">
-      <c r="A52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16">
-      <c r="A53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16">
-      <c r="A54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16">
-      <c r="A56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16">
-      <c r="A57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1">
-      <c r="A58" s="7" t="s">
+    </row>
+    <row r="69" ht="18" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16">
-      <c r="A59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16">
-      <c r="A60" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16">
-      <c r="A61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16">
-      <c r="A62" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16">
-      <c r="A63" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16">
-      <c r="A64" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16">
-      <c r="A65" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16">
-      <c r="A66" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16">
-      <c r="A67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16">
-      <c r="A68" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16">
-      <c r="A69" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>